--- a/projeto-base-selenium/src/test/java/SISTEMA/relatorios/renda_fixa/movimentacao/MovimentacaoTest.xlsx
+++ b/projeto-base-selenium/src/test/java/SISTEMA/relatorios/renda_fixa/movimentacao/MovimentacaoTest.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\ws_robo\projeto-base-selenium\src\test\java\SISTEMA\relatorios\renda_fixa\movimentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipem.medeiros\Documents\02-cursos\SELENIUM\base-selenio\projeto-base-selenium\src\test\java\SISTEMA\relatorios\renda_fixa\movimentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
-    <sheet name="Movimentacao" sheetId="1" r:id="rId1"/>
+    <sheet name="MovimentacaoFds" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -470,7 +470,7 @@
   <dimension ref="B1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
